--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\PROJECTS\Python Projects\war_kedokteran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FCFD5F-74A8-4A50-A58E-F9E7C80E0706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A7BB5F-2830-4BDE-9E02-90593BCAABCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1410" yWindow="3615" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>nama</t>
   </si>
@@ -924,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,12 +969,52 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>2023</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>2023</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
     </row>
